--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/65.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/65.xlsx
@@ -479,13 +479,13 @@
         <v>-5.532947292708429</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.614000365354918</v>
+        <v>-4.606534851869139</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.884332929178547</v>
+        <v>-6.815813497938734</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.856189270211368</v>
+        <v>-7.932100879833956</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.296416491335031</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.549389604167421</v>
+        <v>-5.571839923700294</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.442523156629177</v>
+        <v>-6.331532922736474</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.069748332730731</v>
+        <v>-9.068721641288677</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.169538079463487</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.60129365463224</v>
+        <v>-6.592532554326728</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.008829135478885</v>
+        <v>-5.898738478849695</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.28101445102951</v>
+        <v>-10.26788746759184</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.160434153403893</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.336536730326978</v>
+        <v>-7.333740218399103</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.369772380883832</v>
+        <v>-5.276612355034768</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.16135347252055</v>
+        <v>-11.15681158514118</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.230555557229227</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.262661301126677</v>
+        <v>-8.253841532738763</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.082797455809659</v>
+        <v>-4.981243005170101</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.27634526759604</v>
+        <v>-12.28742864616334</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.3474783607549</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.769729537335627</v>
+        <v>-8.782871187793894</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.779987037493547</v>
+        <v>-4.66596073033649</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.29850460028255</v>
+        <v>-13.30404384506276</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.47770759658429</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.516916456806239</v>
+        <v>-9.548685223427452</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.494464147458848</v>
+        <v>-4.372238975785973</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.37891644978835</v>
+        <v>-14.33136596900073</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.594394349675179</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.754805752936587</v>
+        <v>-9.808257265012568</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.264803049885518</v>
+        <v>-4.167927378817598</v>
       </c>
       <c r="G9" t="n">
-        <v>-14.91196486848809</v>
+        <v>-14.86590553479488</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.675506913078795</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.959650251653455</v>
+        <v>-10.00629137716382</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.180765910850116</v>
+        <v>-4.127891301584431</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.64979422881542</v>
+        <v>-15.55931337872943</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.710877363023319</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.14576496506317</v>
+        <v>-10.17603769558311</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.536338491273974</v>
+        <v>-4.475382353657278</v>
       </c>
       <c r="G11" t="n">
-        <v>-15.60655585208443</v>
+        <v>-15.53436477668756</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.697767743207596</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.64440455343356</v>
+        <v>-10.67252123192519</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.091262862137505</v>
+        <v>-4.035586851937077</v>
       </c>
       <c r="G12" t="n">
-        <v>-15.38582208105008</v>
+        <v>-15.27914884022087</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.641492326645772</v>
       </c>
       <c r="E13" t="n">
-        <v>-11.19345469160871</v>
+        <v>-11.2083514955322</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.296092693833773</v>
+        <v>-4.233474293882327</v>
       </c>
       <c r="G13" t="n">
-        <v>-14.72682795645175</v>
+        <v>-14.6023685086407</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.556671325003456</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.63660405203962</v>
+        <v>-11.66676433540162</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.505953313596097</v>
+        <v>-4.461072230557818</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.80701509351724</v>
+        <v>-13.6316904182628</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.457249628888977</v>
       </c>
       <c r="E15" t="n">
-        <v>-12.21376597969953</v>
+        <v>-12.23362023658607</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.293672635434651</v>
+        <v>-4.255865945332797</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.16679729072908</v>
+        <v>-11.98035501385927</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.360369427945726</v>
       </c>
       <c r="E16" t="n">
-        <v>-12.70371780286741</v>
+        <v>-12.73338429653585</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.194802249565029</v>
+        <v>-4.161068102183316</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.8104498936546</v>
+        <v>-10.60209019900041</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.279820761455738</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.37447487798754</v>
+        <v>-13.36748848717472</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.815234423438354</v>
+        <v>-3.801916768732877</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.545546481018892</v>
+        <v>-9.316491620297061</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.223611447841895</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.94966653588008</v>
+        <v>-13.9592685453667</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.623604910282755</v>
+        <v>-3.622020872057875</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.875701296617225</v>
+        <v>-7.631588294745296</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.198074816898131</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.85389324492287</v>
+        <v>-14.84037514093585</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.216805315907363</v>
+        <v>-3.230157193660908</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.166514273957493</v>
+        <v>-5.944499583124019</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.207125087081829</v>
       </c>
       <c r="E20" t="n">
-        <v>-15.86983864988153</v>
+        <v>-15.83730719818908</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.811570203729384</v>
+        <v>-2.795299588876291</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.69280626704272</v>
+        <v>-4.446850109581963</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.260030529403066</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.36240609172321</v>
+        <v>-16.31728055834159</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.418934062247444</v>
+        <v>-2.404531048017513</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.831715265586724</v>
+        <v>-3.54828975949793</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.369940592451736</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.23668763370614</v>
+        <v>-17.16562591889554</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.387160406619364</v>
+        <v>-2.369740875152546</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.979253361250833</v>
+        <v>-2.699563056408362</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.540228865217419</v>
       </c>
       <c r="E23" t="n">
-        <v>-17.51159160082591</v>
+        <v>-17.46782032234642</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.18484352445269</v>
+        <v>-2.161366513477764</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.472419797371494</v>
+        <v>-2.196161575349598</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.766878350064801</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.07522564648506</v>
+        <v>-18.01724691405032</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.133108053786996</v>
+        <v>-2.122772693270337</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.480868001237523</v>
+        <v>-2.229260151838612</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.037361237243719</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.8406143385212</v>
+        <v>-18.78049422107874</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.910032448463401</v>
+        <v>-1.910878246651377</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.551548373512512</v>
+        <v>-2.303788172517863</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.330663001996267</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.05534929812983</v>
+        <v>-19.02516945874037</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.895854328549347</v>
+        <v>-1.869805699962424</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.497172839138684</v>
+        <v>-2.258603971053835</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.620403230074494</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.23445806469926</v>
+        <v>-19.21131839519816</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.132716933237643</v>
+        <v>-2.116861883968237</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.903195081422237</v>
+        <v>-2.691686866345762</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.878112686594871</v>
       </c>
       <c r="E28" t="n">
-        <v>-19.26044802520378</v>
+        <v>-19.23504963453016</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.05803246433865</v>
+        <v>-2.053011454286328</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.556033946375124</v>
+        <v>-3.375482922779955</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.077995312276292</v>
       </c>
       <c r="E29" t="n">
-        <v>-19.18316749365846</v>
+        <v>-19.17388326961819</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.405103061820942</v>
+        <v>-2.393076104928331</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.344205410411083</v>
+        <v>-4.128414425319192</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.201182137650679</v>
       </c>
       <c r="E30" t="n">
-        <v>-18.96127013898979</v>
+        <v>-18.95444019639671</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.443320428499616</v>
+        <v>-2.456114959470332</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.151786231708695</v>
+        <v>-4.926202565862373</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.236194167966409</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.07363907281896</v>
+        <v>-19.08828653739224</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.505567263929177</v>
+        <v>-2.518444908016631</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.797575148759491</v>
+        <v>-5.579603666604955</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.178071259396106</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.17718823826022</v>
+        <v>-19.18498131520608</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.66532045231249</v>
+        <v>-2.697123441981772</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.532989339694571</v>
+        <v>-6.36060295756715</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.028775937744042</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.0499762795831</v>
+        <v>-19.06190545633837</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.690767733054782</v>
+        <v>-2.730226907477653</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.366755681771379</v>
+        <v>-7.21389110406355</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.794368102328648</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.39355866160363</v>
+        <v>-18.44134381472085</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.746262850001134</v>
+        <v>-2.744576142632048</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.853827879894648</v>
+        <v>-7.714598742338644</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.485214726665657</v>
       </c>
       <c r="E35" t="n">
-        <v>-17.98394299927289</v>
+        <v>-18.02505465801678</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.672937525011144</v>
+        <v>-2.718449289935255</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.234080166982691</v>
+        <v>-8.099050686325368</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.120738535139445</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.63611949473309</v>
+        <v>-17.67183857890278</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.94006797121251</v>
+        <v>-2.963300531844089</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.413012929304912</v>
+        <v>-8.300536437324666</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.722524039981359</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.25517296866995</v>
+        <v>-17.31827538030122</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.564738914039449</v>
+        <v>-2.581459317524298</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.706055111900927</v>
+        <v>-8.580060515933662</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.314162705857815</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.78061173911912</v>
+        <v>-16.83308056081485</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.676188714577642</v>
+        <v>-2.686044952421343</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.671465388317504</v>
+        <v>-8.563848569162973</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.919250149081791</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.38627911225436</v>
+        <v>-16.42951748898535</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.575592509284</v>
+        <v>-2.579102816214445</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.650447547796636</v>
+        <v>-8.551264265487532</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.553810359415766</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.8704937768017</v>
+        <v>-15.92329505096438</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.500311581547244</v>
+        <v>-2.503411211900868</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.437633967886695</v>
+        <v>-8.323602771722772</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.229508561054256</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.21338680885399</v>
+        <v>-15.25670340969486</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.182467467115369</v>
+        <v>-2.191116120262941</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.548096189037771</v>
+        <v>-8.426007909557171</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.95071728386175</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.74668221333829</v>
+        <v>-14.78426400912427</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.004810735585414</v>
+        <v>-2.011611344137292</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.014387754411002</v>
+        <v>-7.898684517898593</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.710845800405573</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.26938313994199</v>
+        <v>-14.31279752092019</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.249085074683952</v>
+        <v>-2.23178287938194</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.810139714531896</v>
+        <v>-7.647057112472214</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.503913621799863</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.9599041162594</v>
+        <v>-13.97280131637432</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.159567358950739</v>
+        <v>-2.112936011454105</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.216976067396573</v>
+        <v>-7.05826912648278</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.317511514157405</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.40016660907318</v>
+        <v>-13.38396932932309</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.153289874133621</v>
+        <v>-2.126581229619664</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.634343341052585</v>
+        <v>-6.467901991275332</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.135342180438031</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.80420156100311</v>
+        <v>-12.75567816784898</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.285322393581526</v>
+        <v>-2.26032490147099</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.235038594204173</v>
+        <v>-6.038828081614276</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.946457619079289</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.40725331546455</v>
+        <v>-12.36745679956787</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.413805494044051</v>
+        <v>-2.382232287697514</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.223661875224862</v>
+        <v>-6.041243251006532</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.740019871339841</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.54006572244552</v>
+        <v>-11.53908792107213</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.514431033378894</v>
+        <v>-2.476096330535414</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.375683190185932</v>
+        <v>-5.193181452850864</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.507415707716444</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.20778925974251</v>
+        <v>-11.18928436875123</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.888440058697888</v>
+        <v>-2.852491191205462</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.913994715715686</v>
+        <v>-4.740767424407156</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.247569009750555</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.74272737053409</v>
+        <v>-10.7088416639395</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.019294327490866</v>
+        <v>-3.00841628721198</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.033110479021202</v>
+        <v>-4.847577557428647</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.961187478329864</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.36761342966317</v>
+        <v>-10.34135946278784</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.034293800558561</v>
+        <v>-3.021777942979259</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.743774163630309</v>
+        <v>-4.58635792052938</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.657183910192416</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.910999744320785</v>
+        <v>-9.894064224533793</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.058044595918034</v>
+        <v>-3.06781283163813</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.297368724626038</v>
+        <v>-4.146205521307895</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.34791591856702</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.764163312079862</v>
+        <v>-9.728546897054386</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.139471005286503</v>
+        <v>-3.132680174748358</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.360529804339713</v>
+        <v>-4.253059655391188</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.044854074939044</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.278073804336843</v>
+        <v>-9.235695892814425</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.192629176950469</v>
+        <v>-3.217607113033537</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.342983158694355</v>
+        <v>-4.245916816358625</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.7634038021256846</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.739745258220838</v>
+        <v>-8.678842899679678</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.55038225443697</v>
+        <v>-3.533886745267999</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.651415934907418</v>
+        <v>-4.588186409097607</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5152752947574601</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.646771014632716</v>
+        <v>-8.568722909009287</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.629256602220909</v>
+        <v>-3.620255940578919</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.917896143195484</v>
+        <v>-4.881971720737393</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3085611463394723</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.298512388481765</v>
+        <v>-8.235238861610151</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.559026018577676</v>
+        <v>-3.576880671655649</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.007428525949297</v>
+        <v>-5.006685396905526</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1498554318997088</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.947892372014092</v>
+        <v>-7.875471513294481</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.514604502184886</v>
+        <v>-3.532253816974449</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.630229332711859</v>
+        <v>-5.613147142718858</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.03998547193316457</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.67487556154496</v>
+        <v>-7.635636392431101</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.692593686181792</v>
+        <v>-3.701633459878718</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.167223179953196</v>
+        <v>-6.146004890150786</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.0227436784792989</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.626689509864646</v>
+        <v>-7.590818866482091</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.70627312739542</v>
+        <v>-3.759485078134922</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.757252973686827</v>
+        <v>-6.712166552360137</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04356946925286246</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.514012568602857</v>
+        <v>-7.45996948669598</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.801589205272794</v>
+        <v>-3.840632814111977</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.043465213689761</v>
+        <v>-6.999200145516713</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03172755279770758</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.233989811293437</v>
+        <v>-7.216291606435205</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.90923046946166</v>
+        <v>-3.952063058622702</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.557915850267753</v>
+        <v>-7.504415448123104</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.00199254829595822</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.08452798236498</v>
+        <v>-7.088703194229326</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.889826001206875</v>
+        <v>-3.949672334264781</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.557070052079777</v>
+        <v>-7.527276444232798</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.04730203814690779</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.277223299017566</v>
+        <v>-7.281515847046717</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.934071513352455</v>
+        <v>-3.983900271340052</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.819111042132685</v>
+        <v>-7.814706046945594</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.09524903181421464</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.099087444814653</v>
+        <v>-7.100016356119367</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.853339342959089</v>
+        <v>-3.918324022234122</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.129118078556894</v>
+        <v>-8.119589404173277</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1394305770625121</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.39033536189051</v>
+        <v>-7.371674022679496</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.950601245569495</v>
+        <v>-3.990896440166608</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.114040381379329</v>
+        <v>-8.139086763558534</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1768466797371521</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.301707445407076</v>
+        <v>-7.312213921164076</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.256838857699313</v>
+        <v>-4.288074722572032</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.066807686038064</v>
+        <v>-8.064231179419199</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2082172435898594</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.534653955594973</v>
+        <v>-7.555725575191376</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.044079056864908</v>
+        <v>-4.096293650203561</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.094415907815533</v>
+        <v>-8.088505098513432</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2355607052657706</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.738300647629448</v>
+        <v>-7.759509159418124</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.127016169355254</v>
+        <v>-4.175114218911963</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.898122282108897</v>
+        <v>-7.875926190933104</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2604996415674013</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.092352746917694</v>
+        <v>-8.120210308045376</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.886682369791449</v>
+        <v>-3.944841995480269</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.962295386244023</v>
+        <v>-7.930839516062292</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2839819663279583</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.412788034989035</v>
+        <v>-8.451846310848817</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.961410839752244</v>
+        <v>-4.029636930580041</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.092044739485079</v>
+        <v>-8.031161936971387</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3054934061594965</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.948051173799483</v>
+        <v>-8.988385480451532</v>
       </c>
       <c r="F72" t="n">
-        <v>-4.00933777406861</v>
+        <v>-4.045790209268329</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.08339119733064</v>
+        <v>-7.996601547429165</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3227841870469927</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.316076054713372</v>
+        <v>-9.361978940186837</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.23170936240337</v>
+        <v>-4.281934129947188</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.814598488794522</v>
+        <v>-7.727613278618372</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3322453650590929</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.862461684146053</v>
+        <v>-9.888906322289197</v>
       </c>
       <c r="F74" t="n">
-        <v>-4.206570089093693</v>
+        <v>-4.240529130791285</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.506923508645831</v>
+        <v>-7.392774976317101</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3297390734826274</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.26226510969489</v>
+        <v>-10.29223961079595</v>
       </c>
       <c r="F75" t="n">
-        <v>-4.282066133132594</v>
+        <v>-4.322732892251593</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.193909732998468</v>
+        <v>-7.066697774321342</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3109384584457002</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.53593704708419</v>
+        <v>-10.61721189723978</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.328932152958841</v>
+        <v>-4.378081338991937</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.96007831256766</v>
+        <v>-6.829448938090559</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2730257833782689</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.1610356870742</v>
+        <v>-11.22969201050629</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.517770043193431</v>
+        <v>-4.543451996265335</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.665178307362218</v>
+        <v>-6.546815451114206</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2149113389007829</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.70792488421417</v>
+        <v>-11.75117792796577</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.542376414754614</v>
+        <v>-4.553640686575986</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.632925529061179</v>
+        <v>-6.528354561184735</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1377262995439632</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.3707177671481</v>
+        <v>-12.41809713269537</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.901703752452262</v>
+        <v>-4.923772729449515</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.3983509795866</v>
+        <v>-6.27928899535662</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.04543764198695986</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.00306680432175</v>
+        <v>-13.04455980560125</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.970472523042288</v>
+        <v>-4.961100296878412</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.072811568346202</v>
+        <v>-5.948195672315406</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.05455931305897769</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.54232915074933</v>
+        <v>-13.56498480857061</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.947611526932593</v>
+        <v>-4.955575719118798</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.719096810531772</v>
+        <v>-5.625941673689574</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1546766312204973</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.24760750335675</v>
+        <v>-14.2578988628116</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.177717524130812</v>
+        <v>-5.169802222013277</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.742627600582233</v>
+        <v>-5.614183612174644</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2456367718798651</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.82514588454541</v>
+        <v>-14.82748771883466</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.459011423225631</v>
+        <v>-5.444784413242908</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.621600235591754</v>
+        <v>-5.50993042974455</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3179253721537147</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.73843681231946</v>
+        <v>-15.75458031299401</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.59861212530352</v>
+        <v>-5.58457089758174</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.366315853028923</v>
+        <v>-5.232151726587043</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3633719943664721</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.88800855296464</v>
+        <v>-16.87033479314074</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.631270691174512</v>
+        <v>-5.645023467491144</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.185207482650926</v>
+        <v>-5.0895149512448</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3757839942771581</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.0549900470629</v>
+        <v>-18.01351660181086</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.909225398579228</v>
+        <v>-5.898577141623087</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.969626724854311</v>
+        <v>-4.892351082315853</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3484997738497906</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.18778271614083</v>
+        <v>-19.14796664421667</v>
       </c>
       <c r="F87" t="n">
-        <v>-6.059273908331714</v>
+        <v>-6.062495763857011</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.060552474565196</v>
+        <v>-5.008499218453152</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2775363689148269</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.1219203691954</v>
+        <v>-20.10738535178006</v>
       </c>
       <c r="F88" t="n">
-        <v>-6.131611653934588</v>
+        <v>-6.177680765641528</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.142497118661557</v>
+        <v>-5.097963155110828</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.159613077156958</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.13620840082617</v>
+        <v>-21.10443963420496</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.463350325882234</v>
+        <v>-6.445261000474649</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.795509634296002</v>
+        <v>-4.786156964159594</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.00821417908525557</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.75435722661708</v>
+        <v>-22.72715968141643</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.699636027760234</v>
+        <v>-6.664581848524453</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.899699259636827</v>
+        <v>-4.899288583060006</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.224954671839822</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.14754817944064</v>
+        <v>-24.08815652402135</v>
       </c>
       <c r="F91" t="n">
-        <v>-6.607336467119747</v>
+        <v>-6.567857736669408</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.690884887344022</v>
+        <v>-4.719153125048525</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4906807855965055</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.80460861088532</v>
+        <v>-25.75598743759385</v>
       </c>
       <c r="F92" t="n">
-        <v>-6.777317457868645</v>
+        <v>-6.726305560219255</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.94931290132228</v>
+        <v>-4.951204946979775</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.8028719977180012</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.47299198223378</v>
+        <v>-27.41050558546774</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.679913774059099</v>
+        <v>-6.630828145115273</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.9805781002362</v>
+        <v>-5.006924958242005</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.155727352627157</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.13028708600808</v>
+        <v>-29.06192654749144</v>
       </c>
       <c r="F94" t="n">
-        <v>-7.05795134103643</v>
+        <v>-6.985305588000942</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.065221476123099</v>
+        <v>-5.062752527655307</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.546301087204597</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.23517321295187</v>
+        <v>-31.17276748479913</v>
       </c>
       <c r="F95" t="n">
-        <v>-7.027566163358554</v>
+        <v>-6.90736992953545</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.975664648334951</v>
+        <v>-4.974911741277446</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.967830334756879</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.08904794933451</v>
+        <v>-33.0171526588531</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.282351867220959</v>
+        <v>-7.201888592205274</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.209056058147737</v>
+        <v>-5.193978360970172</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.405798343039308</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.07723103786162</v>
+        <v>-35.02020566176592</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.483294938458031</v>
+        <v>-7.355462075908806</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.034821631424622</v>
+        <v>-5.018463014447924</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.854067544614055</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.92306091344476</v>
+        <v>-36.85971160696671</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.354929174160312</v>
+        <v>-7.241191318408402</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.361509959278746</v>
+        <v>-5.311382971872267</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.286018824430127</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.97552955326492</v>
+        <v>-38.91198468651219</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.42014363675809</v>
+        <v>-7.340521270923514</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.69963856320145</v>
+        <v>-5.620945108671587</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.700790879898072</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.53143634169535</v>
+        <v>-41.45321223182471</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.131022437669341</v>
+        <v>-7.041397163785057</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.270581674126645</v>
+        <v>-6.167765859715423</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.06018890329744</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.61500150969253</v>
+        <v>-43.53324264785711</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.996750753076389</v>
+        <v>-6.930758938386771</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.918883540707035</v>
+        <v>-6.802862518748277</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.387654023848271</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.99559584538569</v>
+        <v>-45.89472096670063</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.125654308129469</v>
+        <v>-7.030670682719045</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.409852277303234</v>
+        <v>-7.267821738812488</v>
       </c>
     </row>
   </sheetData>
